--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-8.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-8.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
-    <t>E</t>
+    <t>A,B</t>
   </si>
   <si>
     <t>C,D</t>
   </si>
   <si>
-    <t>A,C</t>
+    <t>E</t>
   </si>
   <si>
-    <t>A,B</t>
+    <t>A,C</t>
   </si>
 </sst>
 </file>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,22 +467,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="F3">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -493,28 +493,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F4">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,19 +522,19 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="F5">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -545,25 +545,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="F6">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -571,51 +571,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="F7">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="F8">
-        <v>589</v>
+        <v>472</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -623,22 +623,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="F9">
-        <v>721</v>
+        <v>536</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -649,51 +649,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>744</v>
+        <v>424</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>744</v>
+        <v>424</v>
       </c>
       <c r="F10">
-        <v>964</v>
+        <v>560</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>824</v>
+        <v>481</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>824</v>
+        <v>481</v>
       </c>
       <c r="F11">
-        <v>1027</v>
+        <v>632</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -701,25 +701,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>925</v>
+        <v>494</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>925</v>
+        <v>494</v>
       </c>
       <c r="F12">
-        <v>2101</v>
+        <v>575</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>925</v>
+        <v>498</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>925</v>
+        <v>498</v>
       </c>
       <c r="F13">
-        <v>1098</v>
+        <v>1979</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -753,25 +753,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>1042</v>
+        <v>908</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1042</v>
+        <v>908</v>
       </c>
       <c r="F14">
-        <v>1230</v>
+        <v>1051</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -779,22 +779,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>1270</v>
+        <v>924</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>1270</v>
+        <v>924</v>
       </c>
       <c r="F15">
-        <v>1484</v>
+        <v>1028</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -805,51 +805,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>1355</v>
+        <v>985</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>1355</v>
+        <v>985</v>
       </c>
       <c r="F16">
-        <v>1620</v>
+        <v>1101</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>1446</v>
+        <v>1027</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>1446</v>
+        <v>1027</v>
       </c>
       <c r="F17">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -857,51 +857,51 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>1506</v>
+        <v>1037</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>1506</v>
+        <v>1037</v>
       </c>
       <c r="F18">
-        <v>3344</v>
+        <v>1115</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>1736</v>
+        <v>1186</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>1736</v>
+        <v>1186</v>
       </c>
       <c r="F19">
-        <v>1917</v>
+        <v>1263</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -909,51 +909,51 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>1844</v>
+        <v>1238</v>
       </c>
       <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1238</v>
+      </c>
+      <c r="F20">
+        <v>1326</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1844</v>
-      </c>
-      <c r="F20">
-        <v>2015</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>1953</v>
+        <v>1307</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>1953</v>
+        <v>1307</v>
       </c>
       <c r="F21">
-        <v>2208</v>
+        <v>2705</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>2010</v>
+        <v>1427</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>2010</v>
+        <v>1427</v>
       </c>
       <c r="F22">
-        <v>2277</v>
+        <v>1506</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -987,77 +987,77 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>2262</v>
+        <v>1511</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>2262</v>
+        <v>1511</v>
       </c>
       <c r="F23">
-        <v>2561</v>
+        <v>1612</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>2274</v>
+        <v>1614</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>2274</v>
+        <v>1614</v>
       </c>
       <c r="F24">
-        <v>3974</v>
+        <v>1719</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>2331</v>
+        <v>1740</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2331</v>
+        <v>1740</v>
       </c>
       <c r="F25">
-        <v>2555</v>
+        <v>1844</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1065,25 +1065,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>2407</v>
+        <v>2012</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>2407</v>
+        <v>2012</v>
       </c>
       <c r="F26">
-        <v>2695</v>
+        <v>2111</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1091,25 +1091,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2033</v>
+      </c>
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>2436</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
       <c r="D27">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>2436</v>
+        <v>2033</v>
       </c>
       <c r="F27">
-        <v>4247</v>
+        <v>3195</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1117,48 +1117,48 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>2439</v>
+        <v>2033</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>2439</v>
+        <v>2033</v>
       </c>
       <c r="F28">
-        <v>2746</v>
+        <v>2184</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>2511</v>
+        <v>2273</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>2511</v>
+        <v>2273</v>
       </c>
       <c r="F29">
-        <v>2776</v>
+        <v>3368</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1169,77 +1169,77 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>2691</v>
+        <v>2284</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>2691</v>
+        <v>2284</v>
       </c>
       <c r="F30">
-        <v>2968</v>
+        <v>2419</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>2710</v>
+        <v>2295</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>2710</v>
+        <v>2295</v>
       </c>
       <c r="F31">
-        <v>2997</v>
+        <v>2432</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>2727</v>
+        <v>2435</v>
       </c>
       <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
         <v>32</v>
       </c>
-      <c r="D32">
-        <v>23</v>
-      </c>
       <c r="E32">
-        <v>2727</v>
+        <v>2435</v>
       </c>
       <c r="F32">
-        <v>2942</v>
+        <v>2562</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1247,25 +1247,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>2995</v>
+        <v>2444</v>
       </c>
       <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
         <v>40</v>
       </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
       <c r="E33">
-        <v>2995</v>
+        <v>2444</v>
       </c>
       <c r="F33">
-        <v>3175</v>
+        <v>2597</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1273,74 +1273,74 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>2998</v>
+        <v>2446</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>2998</v>
+        <v>2446</v>
       </c>
       <c r="F34">
-        <v>3184</v>
+        <v>2556</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>3202</v>
+        <v>2486</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>3202</v>
+        <v>2486</v>
       </c>
       <c r="F35">
-        <v>3486</v>
+        <v>2635</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>3212</v>
+        <v>2614</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>3212</v>
+        <v>2614</v>
       </c>
       <c r="F36">
-        <v>3470</v>
+        <v>2748</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -1351,25 +1351,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>3318</v>
+        <v>2683</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>3318</v>
+        <v>2683</v>
       </c>
       <c r="F37">
-        <v>3474</v>
+        <v>4218</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1377,22 +1377,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>2944</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
         <v>8</v>
       </c>
-      <c r="B38">
-        <v>3339</v>
-      </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
       <c r="E38">
-        <v>3339</v>
+        <v>2944</v>
       </c>
       <c r="F38">
-        <v>3527</v>
+        <v>4365</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>3539</v>
+        <v>3141</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>3539</v>
+        <v>3141</v>
       </c>
       <c r="F39">
-        <v>3824</v>
+        <v>4890</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1429,54 +1429,54 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>3546</v>
+        <v>3200</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>3546</v>
+        <v>3200</v>
       </c>
       <c r="F40">
-        <v>3817</v>
+        <v>3332</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>3574</v>
+        <v>3286</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>3574</v>
+        <v>3286</v>
       </c>
       <c r="F41">
-        <v>3790</v>
+        <v>3403</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
